--- a/rhla_analysis/rhla1_3_normal_result/k9.xlsx
+++ b/rhla_analysis/rhla1_3_normal_result/k9.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01033995983080708</v>
+        <v>0.01033995983080714</v>
       </c>
       <c r="B2" t="n">
         <v>0.4594776164104914</v>
@@ -466,12 +466,12 @@
         <v>0.1632566069906223</v>
       </c>
       <c r="D2" t="n">
-        <v>44.43707944024258</v>
+        <v>44.43707944024231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.003865594898094266</v>
+        <v>0.003865594898094282</v>
       </c>
       <c r="B3" t="n">
         <v>0.3949856768142912</v>
@@ -480,12 +480,12 @@
         <v>0.1832907075873828</v>
       </c>
       <c r="D3" t="n">
-        <v>102.1797904920194</v>
+        <v>102.179790492019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00346182418560951</v>
+        <v>0.003461824185609507</v>
       </c>
       <c r="B4" t="n">
         <v>0.4289017088654815</v>
@@ -494,12 +494,12 @@
         <v>0.1773231031543052</v>
       </c>
       <c r="D4" t="n">
-        <v>123.8947115363013</v>
+        <v>123.8947115363014</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.003703984978310376</v>
+        <v>0.003703984978310383</v>
       </c>
       <c r="B5" t="n">
         <v>0.4180265376342956</v>
@@ -508,12 +508,12 @@
         <v>0.1705029838022165</v>
       </c>
       <c r="D5" t="n">
-        <v>112.8585942119517</v>
+        <v>112.8585942119515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.004235185599706816</v>
+        <v>0.004235185599706866</v>
       </c>
       <c r="B6" t="n">
         <v>0.4319822724470677</v>
@@ -522,12 +522,12 @@
         <v>0.1764705882352941</v>
       </c>
       <c r="D6" t="n">
-        <v>101.998427761223</v>
+        <v>101.9984277612218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.004820564198675147</v>
+        <v>0.004820564198675184</v>
       </c>
       <c r="B7" t="n">
         <v>0.4097518766154229</v>
@@ -536,12 +536,12 @@
         <v>0.1798806479113385</v>
       </c>
       <c r="D7" t="n">
-        <v>85.00081312640468</v>
+        <v>85.00081312640403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01025378079445685</v>
+        <v>0.01025378079445693</v>
       </c>
       <c r="B8" t="n">
         <v>0.4177866191115079</v>
@@ -550,12 +550,12 @@
         <v>0.164535379369139</v>
       </c>
       <c r="D8" t="n">
-        <v>40.74464117053892</v>
+        <v>40.74464117053861</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.004592818761275183</v>
+        <v>0.004592818761275263</v>
       </c>
       <c r="B9" t="n">
         <v>0.4246925281447629</v>
@@ -564,12 +564,12 @@
         <v>0.1824381926683717</v>
       </c>
       <c r="D9" t="n">
-        <v>92.46881930669703</v>
+        <v>92.46881930669542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.002146525650597513</v>
+        <v>0.002146525650597529</v>
       </c>
       <c r="B10" t="n">
         <v>0.4052094356963203</v>
@@ -578,12 +578,12 @@
         <v>0.1896845694799659</v>
       </c>
       <c r="D10" t="n">
-        <v>188.7745602217821</v>
+        <v>188.7745602217807</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.003563106496903249</v>
+        <v>0.003563106496903262</v>
       </c>
       <c r="B11" t="n">
         <v>0.4293065384472108</v>
@@ -592,7 +592,7 @@
         <v>0.1888320545609548</v>
       </c>
       <c r="D11" t="n">
-        <v>120.4865863033641</v>
+        <v>120.4865863033637</v>
       </c>
     </row>
   </sheetData>
